--- a/medicine/Œil et vue/Henri_Parinaud/Henri_Parinaud.xlsx
+++ b/medicine/Œil et vue/Henri_Parinaud/Henri_Parinaud.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Henri Parinaud, né le 1er mai 1844 à Bellac (Haute-Vienne) et mort le 23 mars 1905 à Paris, est un ophtalmologue et neurologue français. Il est considéré comme le fondateur de l'ophtalmologie française[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henri Parinaud, né le 1er mai 1844 à Bellac (Haute-Vienne) et mort le 23 mars 1905 à Paris, est un ophtalmologue et neurologue français. Il est considéré comme le fondateur de l'ophtalmologie française.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Aperçu biographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1869, Henri Parinaud commençe des études de médecine à Limoges. La guerre franco-prussienne de 1870 interrompit ses études. Il travailla sur le front des combats dans les services ambulanciers de la Croix-Rouge française sous la direction de Léon Clément Le Fort. Après la guerre, il reprend ses études médicales à Paris et devint l'assistant de Noël Guéneau de Mussy, puis de Odilon Lannelongue.
 Il présenta sa thèse de doctorat sur "le nerf optique et la méningite chez l'enfant". Jean-Martin Charcot fut très intéressé par ce travail et engagea Parinaud comme collaborateur à l'Hôpital de la Salpêtrière.
-Henri Parinaud travailla deux années comme chef de clinique sous la direction de Xavier Galezowski. À sa mort, son ami Joseph Babinski devint le tuteur de ses trois fillettes[2].
+Henri Parinaud travailla deux années comme chef de clinique sous la direction de Xavier Galezowski. À sa mort, son ami Joseph Babinski devint le tuteur de ses trois fillettes.
 Sous le pseudonyme de Pierre Erick, il publie des pièces musicales[réf. souhaitée].
-Il est promu officier de la Légion d'honneur en 1900[3].
+Il est promu officier de la Légion d'honneur en 1900.
 </t>
         </is>
       </c>
@@ -548,15 +562,15 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le syndrome de Parinaud
-Le syndrome de Parinaud fut décrit par Henri Parinaud en 1889. Ce syndrome se manifeste par une paralysie verticale du regard parfois associée à une paralysie de la convergence avec immobilité de la pupille et une paralysie du nerf oculomoteur (lésion des tubercules quadrijumeaux ou de la région sous-thalamique, tumeur, encéphalique, pseudo paralysie bulbaire)[4].
+          <t>Le syndrome de Parinaud</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le syndrome de Parinaud fut décrit par Henri Parinaud en 1889. Ce syndrome se manifeste par une paralysie verticale du regard parfois associée à une paralysie de la convergence avec immobilité de la pupille et une paralysie du nerf oculomoteur (lésion des tubercules quadrijumeaux ou de la région sous-thalamique, tumeur, encéphalique, pseudo paralysie bulbaire).
 En 1889, Henri Parinaud décrivait trois patients ayant développés une conjonctivite unilatérale associée à des adénopathies adjacentes préauriculaires qui évoluaient et régressaient spontanément en quelques semaines ou quelques mois.
 Les principales causes du syndrome de Parinaud peuvent être une tumeur au cerveau au niveau de la glande pinéale, la sclérose en plaques, ou encore à la suite d'un accident vasculaire cérébral. Ces manifestations cliniques peuvent être associées avec une hydrocéphalie, une hémorragie crânienne ou une malformation artéro-veineuse cérébrale.
-Le syndrome oculo-glandulaire
-Le syndrome oculo-glandulaire ou conjonctivite de Parinaud peut s’observer dans la maladie des griffes du chat. Ce syndrome est une  bartonellose oculaire, c’est-à-dire une infection de l’œil consécutive à la contamination conjonctivale indirecte par la bactérie Bartonella henselae et non à la griffure du chat[5]. La maladie des griffes du chat a été décrite dans de nombreux pays. Sa prévalence varierait avec la densité des populations de chats, l'exposition humaine aux chats, et à l'importance du degré d'infestation de ces mêmes chats par des puces[6].
-La première description d’une bartonellose oculaire a été donnée par Henri Parinaud en 1889. Bartonella henselae est l’agent de la bartonellose oculaire de la maladie des griffes du chat et, chez le sujet immunodéprimé, de l’angiomatose bacillaire et de la péliose hépatique[6].
-L'échelle Parinaud
-Henri Parinaud élabore une échelle de distance (dite « Échelle Parinaud ») pour l'analyse de la vision. L'acuité visuelle se calcule en dixièmes. L'acuité visuelle de près est déterminée par des tests vus à 33 cm (distance de lecture : test optométrique) conçus par Henri Parinaud[7],[8].
 </t>
         </is>
       </c>
@@ -582,10 +596,87 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Éponymie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Le syndrome oculo-glandulaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le syndrome oculo-glandulaire ou conjonctivite de Parinaud peut s’observer dans la maladie des griffes du chat. Ce syndrome est une  bartonellose oculaire, c’est-à-dire une infection de l’œil consécutive à la contamination conjonctivale indirecte par la bactérie Bartonella henselae et non à la griffure du chat. La maladie des griffes du chat a été décrite dans de nombreux pays. Sa prévalence varierait avec la densité des populations de chats, l'exposition humaine aux chats, et à l'importance du degré d'infestation de ces mêmes chats par des puces.
+La première description d’une bartonellose oculaire a été donnée par Henri Parinaud en 1889. Bartonella henselae est l’agent de la bartonellose oculaire de la maladie des griffes du chat et, chez le sujet immunodéprimé, de l’angiomatose bacillaire et de la péliose hépatique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Henri_Parinaud</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Œil et vue/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Henri_Parinaud</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Éponymie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>L'échelle Parinaud</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henri Parinaud élabore une échelle de distance (dite « Échelle Parinaud ») pour l'analyse de la vision. L'acuité visuelle se calcule en dixièmes. L'acuité visuelle de près est déterminée par des tests vus à 33 cm (distance de lecture : test optométrique) conçus par Henri Parinaud,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Henri_Parinaud</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Œil et vue/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Henri_Parinaud</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Étude sur la névrite optique dans la méningite aiguë de l'enfance, [thèse de médecine de la Faculté de médecine de Paris], impr. A. Parent (Paris), 1877.
 De la polyopie monoculaire dans l'hystérie, J.S. Van Doosselaere (Gand), 1878.
